--- a/Instantiated DB.xlsx
+++ b/Instantiated DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
   <si>
     <t>Students</t>
   </si>
@@ -465,9 +465,6 @@
     <t>PointsAwarded</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -478,6 +475,48 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Blurbs</t>
+  </si>
+  <si>
+    <t>Student email</t>
+  </si>
+  <si>
+    <t>Blurb</t>
+  </si>
+  <si>
+    <t>Administrator email</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>Reflections</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Can you check my c2 please?</t>
+  </si>
+  <si>
+    <t>When are the points for this semester due?</t>
+  </si>
+  <si>
+    <t>How many points do I need?</t>
+  </si>
+  <si>
+    <t>Where can I find resources on how to get an internship?</t>
+  </si>
+  <si>
+    <t>refelction text</t>
+  </si>
+  <si>
+    <t>Reflection text</t>
+  </si>
+  <si>
+    <t>reflection text</t>
   </si>
 </sst>
 </file>
@@ -846,16 +885,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
@@ -1485,7 +1524,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>141</v>
@@ -1499,7 +1538,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1513,7 +1552,7 @@
         <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1527,7 +1566,7 @@
         <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1541,10 +1580,10 @@
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,10 +1594,10 @@
         <v>74</v>
       </c>
       <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
         <v>145</v>
-      </c>
-      <c r="D51" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,10 +1608,10 @@
         <v>77</v>
       </c>
       <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
         <v>145</v>
-      </c>
-      <c r="D52" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -1597,7 +1636,7 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -1611,10 +1650,10 @@
         <v>75</v>
       </c>
       <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
         <v>145</v>
-      </c>
-      <c r="D55" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,10 +1664,10 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,7 +1678,7 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -1653,10 +1692,128 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
         <v>145</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>900752513</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>922152345</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>900019812</v>
+      </c>
+      <c r="B65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>956789000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1669,8 +1826,16 @@
     <hyperlink ref="D13" r:id="rId6"/>
     <hyperlink ref="D14" r:id="rId7"/>
     <hyperlink ref="D15" r:id="rId8"/>
+    <hyperlink ref="A71" r:id="rId9"/>
+    <hyperlink ref="A72" r:id="rId10"/>
+    <hyperlink ref="A73" r:id="rId11"/>
+    <hyperlink ref="A74" r:id="rId12"/>
+    <hyperlink ref="C71" r:id="rId13"/>
+    <hyperlink ref="C72" r:id="rId14"/>
+    <hyperlink ref="C73" r:id="rId15"/>
+    <hyperlink ref="C74" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId17"/>
 </worksheet>
 </file>